--- a/analog/src/main/resources/ExcelConfig.xlsx
+++ b/analog/src/main/resources/ExcelConfig.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
-  <si>
-    <t>1129308420638814208</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+  <si>
+    <t>1131034856261181440</t>
   </si>
   <si>
     <t>1</t>
@@ -38,13 +38,31 @@
     <t>6</t>
   </si>
   <si>
-    <t>1131034856261181440</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>1135423317189664768</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>1136212252807397376</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10.3.93.61</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -89,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -123,12 +141,16 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1"/>
-      <c r="K1"/>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -146,7 +168,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -155,10 +177,45 @@
         <v>7</v>
       </c>
       <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
-        <v>10</v>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
